--- a/Access_Data_Export/clients_matters_documents.xlsx
+++ b/Access_Data_Export/clients_matters_documents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Claude\Litigation_Database_Ver2\Litigation_Database_Ver2\Access_Data_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7159299-176A-4AEF-A934-01A66F4AE96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68781B33-4A7A-4DF2-90E6-9402C0B9F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2178,10 +2178,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2518,135 +2530,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>44614</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>44614</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>45404</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="5">
         <v>45404</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1111</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>43237</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>43237</v>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
         <v>45</v>
       </c>
     </row>
